--- a/docs/BMS indkøb/Komponenter til rådighed BMS.xlsx
+++ b/docs/BMS indkøb/Komponenter til rådighed BMS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studie-PC\Documents\GitHub\PRJ4\Documents\Shopping\BMS Shopping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BEAST\Documents\GitHub\BatteryManagementSystem\docs\BMS indkøb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="154">
   <si>
     <t>Antal</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>http://dk.farnell.com/bourns/sf-0603s050-2/fuse-500ma-50vdc-smd-slow-blow/dp/2291892</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/panasonic-electric-works/HE1AN-S-DC48V/HE1AN-S-DC48V-ND/647916</t>
   </si>
 </sst>
 </file>
@@ -904,17 +907,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>135</v>
       </c>
@@ -924,7 +927,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -933,7 +936,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -951,7 +954,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -962,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -976,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -993,7 +996,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -1621,16 +1624,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>134</v>
       </c>
       <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -1726,17 +1731,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -1790,11 +1795,12 @@
     <hyperlink ref="E47" r:id="rId41"/>
     <hyperlink ref="E50" r:id="rId42"/>
     <hyperlink ref="E52" r:id="rId43"/>
+    <hyperlink ref="E46" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>